--- a/src/resources/data.xlsx
+++ b/src/resources/data.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workPlace\GIT_PROJECT\ski-memo-system\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AC76B4-D79B-4091-B9EE-FA0BD7A48652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A3E0D3-9815-439C-9B1D-CA84672C50B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>uuid</t>
   </si>
@@ -58,6 +64,120 @@
   </si>
   <si>
     <t>updated_datetime</t>
+  </si>
+  <si>
+    <t>戸狩温泉</t>
+  </si>
+  <si>
+    <t>レシェント</t>
+  </si>
+  <si>
+    <t>11-1563449</t>
+  </si>
+  <si>
+    <t>ノルン水上スキー場</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>11-1578859</t>
+  </si>
+  <si>
+    <t>たんばらスキーパーク</t>
+  </si>
+  <si>
+    <t>11-1578628</t>
+  </si>
+  <si>
+    <t>ハンターマウンテン塩原</t>
+  </si>
+  <si>
+    <t>11-1602884</t>
+  </si>
+  <si>
+    <t>岩原スキー場</t>
+  </si>
+  <si>
+    <t>32-005801</t>
+  </si>
+  <si>
+    <t>奥利根スノーパーク</t>
+  </si>
+  <si>
+    <t>11-1626263</t>
+  </si>
+  <si>
+    <t>SYSTEM</t>
+  </si>
+  <si>
+    <t>book_no</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>2018/12/21</t>
+  </si>
+  <si>
+    <t>2018/12/23</t>
+  </si>
+  <si>
+    <t>63200</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>2018/12/31</t>
+  </si>
+  <si>
+    <t>4400</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>2019/1/2</t>
+  </si>
+  <si>
+    <t>5900</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t>2019/1/20</t>
+  </si>
+  <si>
+    <t>38600</t>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>2019/2/3</t>
+  </si>
+  <si>
+    <t>121300</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>2019/2/17</t>
+  </si>
+  <si>
+    <t>27600</t>
   </si>
 </sst>
 </file>
@@ -130,10 +250,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,26 +541,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" customWidth="1"/>
+    <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="54">
+    <row r="1" spans="1:12" ht="54">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,21 +584,247 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
-        <v>10001</v>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3">
+        <v>43755</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="3">
+        <v>43755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="3">
+        <v>43755</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="3">
+        <v>43755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="3">
+        <v>43755</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="3">
+        <v>43755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3">
+        <v>43755</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="3">
+        <v>43755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="3">
+        <v>43755</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="3">
+        <v>43755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="3">
+        <v>43755</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="3">
+        <v>43755</v>
       </c>
     </row>
   </sheetData>
